--- a/Study 2/Data Analysis/Performance/performance.xlsx
+++ b/Study 2/Data Analysis/Performance/performance.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/Study 2/Data Analysis/Performance/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="10160" windowWidth="19200" windowHeight="10560" tabRatio="500"/>
+    <workbookView xWindow="17560" yWindow="4140" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="users.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users.csv!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users.csv!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Phase 1 report</t>
   </si>
@@ -38,12 +43,21 @@
   <si>
     <t>User</t>
   </si>
+  <si>
+    <t>Phase 1 total</t>
+  </si>
+  <si>
+    <t>Phase 2 total</t>
+  </si>
+  <si>
+    <t>Phase1+2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +77,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,8 +209,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -296,6 +318,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -621,18 +648,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -643,13 +670,22 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>197</v>
       </c>
@@ -662,8 +698,18 @@
       <c r="D2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <f>C2+E2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>209</v>
       </c>
@@ -673,11 +719,15 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="0">C3+E3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>186</v>
       </c>
@@ -687,11 +737,15 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -701,11 +755,15 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>150</v>
       </c>
@@ -715,11 +773,15 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>191</v>
       </c>
@@ -729,280 +791,201 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>189</v>
-      </c>
-      <c r="B8">
-        <v>160</v>
-      </c>
-      <c r="C8">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>201</v>
+      </c>
+      <c r="B8" s="1">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>206</v>
+      </c>
+      <c r="B9" s="1">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>179</v>
+      </c>
+      <c r="B10" s="1">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>193</v>
+      </c>
+      <c r="B11">
+        <v>164</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>185</v>
+      </c>
+      <c r="B13">
+        <v>164</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>164</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>183</v>
+      </c>
+      <c r="B15">
+        <v>171</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>126</v>
-      </c>
-      <c r="B9">
-        <v>160</v>
-      </c>
-      <c r="C9">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>198</v>
+      </c>
+      <c r="B16">
+        <v>171</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>178</v>
-      </c>
-      <c r="B10">
-        <v>160</v>
-      </c>
-      <c r="C10">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>188</v>
+      </c>
+      <c r="B17">
+        <v>171</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>204</v>
-      </c>
-      <c r="B11">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>184</v>
-      </c>
-      <c r="B12">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>196</v>
-      </c>
-      <c r="B13">
-        <v>162</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>192</v>
-      </c>
-      <c r="B14">
-        <v>162</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>170</v>
-      </c>
-      <c r="B15">
-        <v>162</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>201</v>
-      </c>
-      <c r="B16">
-        <v>163</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>206</v>
-      </c>
-      <c r="B17">
-        <v>163</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>179</v>
-      </c>
-      <c r="B18">
-        <v>163</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>193</v>
-      </c>
-      <c r="B19">
-        <v>164</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>180</v>
-      </c>
-      <c r="B20">
-        <v>164</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>185</v>
-      </c>
-      <c r="B21">
-        <v>164</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>190</v>
-      </c>
-      <c r="B22">
-        <v>164</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>195</v>
-      </c>
-      <c r="B23">
-        <v>165</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>187</v>
-      </c>
-      <c r="B24">
-        <v>165</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>176</v>
-      </c>
-      <c r="B25">
-        <v>165</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>208</v>
-      </c>
-      <c r="B26">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>205</v>
-      </c>
-      <c r="B27">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>182</v>
-      </c>
-      <c r="B28">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>183</v>
-      </c>
-      <c r="B29">
-        <v>171</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>198</v>
-      </c>
-      <c r="B30">
-        <v>171</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>188</v>
-      </c>
-      <c r="B31">
-        <v>171</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E31">
+  <autoFilter ref="A1:H17">
     <sortState ref="A2:G33">
       <sortCondition ref="B1:B33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>